--- a/daschland_ontology/project-metadata (Project Metadata)/properties.xlsx
+++ b/daschland_ontology/project-metadata (Project Metadata)/properties.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10817"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10905"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/daschland_ontology/metadata (Metadata)/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/daschland_ontology/project-metadata (Project Metadata)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B94516B4-B681-8648-AC99-0084911BA9E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32938211-92D6-6C44-ADAA-0CB216933336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21820" yWindow="500" windowWidth="53980" windowHeight="31420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="37080" yWindow="500" windowWidth="39480" windowHeight="31420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -328,7 +328,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="84">
   <si>
     <t>name</t>
   </si>
@@ -375,9 +375,6 @@
     <t>gui_attributes</t>
   </si>
   <si>
-    <t>Description</t>
-  </si>
-  <si>
     <t>TextValue</t>
   </si>
   <si>
@@ -402,24 +399,12 @@
     <t>TimeStamp</t>
   </si>
   <si>
-    <t>Copyright</t>
-  </si>
-  <si>
-    <t>License</t>
-  </si>
-  <si>
-    <t>hasDescription</t>
-  </si>
-  <si>
     <t>hasID</t>
   </si>
   <si>
     <t>hasTimeStamp</t>
   </si>
   <si>
-    <t>hasCopyright</t>
-  </si>
-  <si>
     <t>hasFileName</t>
   </si>
   <si>
@@ -435,39 +420,15 @@
     <t>hasValue, schema:license</t>
   </si>
   <si>
-    <t>Droits d'auteur</t>
-  </si>
-  <si>
-    <t>Licence</t>
-  </si>
-  <si>
     <t>Horodatage</t>
   </si>
   <si>
     <t>Nome del file</t>
   </si>
   <si>
-    <t>Licenza</t>
-  </si>
-  <si>
-    <t>Urheberrecht</t>
-  </si>
-  <si>
-    <t>Beschreibung</t>
-  </si>
-  <si>
-    <t>Lizenz</t>
-  </si>
-  <si>
     <t>Zeitstempel</t>
   </si>
   <si>
-    <t>Descrizione</t>
-  </si>
-  <si>
-    <t>hasLicenseList</t>
-  </si>
-  <si>
     <t>Timestamp</t>
   </si>
   <si>
@@ -483,96 +444,188 @@
     <t>hasValue, schema:dateCreated</t>
   </si>
   <si>
+    <t>DecimalValue</t>
+  </si>
+  <si>
+    <t>File Size (Mb)</t>
+  </si>
+  <si>
+    <t>Dateigrösse (Mb)</t>
+  </si>
+  <si>
+    <t>Taille du fichier (Mb)</t>
+  </si>
+  <si>
+    <t>Dimensioni del file (Mb)</t>
+  </si>
+  <si>
+    <t>hasValue, schema:copyrightHolder, crm:P105_right_held_by</t>
+  </si>
+  <si>
+    <t>hasValue, schema:size</t>
+  </si>
+  <si>
+    <t>hasValue, schema:description, crm:P190_has_symbolic_content</t>
+  </si>
+  <si>
+    <t>hasValue, schema:identifier, crm:P1_is_identified_by</t>
+  </si>
+  <si>
+    <t>hasValue, foaf:person, schema:author, crm:E21_Person</t>
+  </si>
+  <si>
+    <t>hasAuthorshipResource</t>
+  </si>
+  <si>
+    <t>Author of the resource</t>
+  </si>
+  <si>
+    <t>Autor der Resource</t>
+  </si>
+  <si>
+    <t>Auteur·rice de la ressource</t>
+  </si>
+  <si>
+    <t>Autore della risorsa</t>
+  </si>
+  <si>
+    <t>hasCopyrightResource</t>
+  </si>
+  <si>
+    <t>Copyright of the resource</t>
+  </si>
+  <si>
+    <t>Urheberrecht der Resource</t>
+  </si>
+  <si>
+    <t>Droits d'auteur de la ressource</t>
+  </si>
+  <si>
+    <t>Copyright della risorsa</t>
+  </si>
+  <si>
+    <t>hasLicenseResource</t>
+  </si>
+  <si>
+    <t>License of the resource</t>
+  </si>
+  <si>
+    <t>Lizenz der Resource</t>
+  </si>
+  <si>
+    <t>Licence de la ressource</t>
+  </si>
+  <si>
+    <t>Licenza della risorsa</t>
+  </si>
+  <si>
+    <t>default_permissions_overrule</t>
+  </si>
+  <si>
+    <t>hasFileDescription</t>
+  </si>
+  <si>
+    <t>File Description</t>
+  </si>
+  <si>
+    <t>Dateibeschreibung</t>
+  </si>
+  <si>
+    <t>Description du fichier</t>
+  </si>
+  <si>
+    <t>Descrizione del file</t>
+  </si>
+  <si>
+    <t>Size of the file in Mb</t>
+  </si>
+  <si>
+    <t>Dateigröße in MB</t>
+  </si>
+  <si>
+    <t>Taille du fichier en Mo</t>
+  </si>
+  <si>
+    <t>Dimensione del file in Mb</t>
+  </si>
+  <si>
+    <t>Time stamp</t>
+  </si>
+  <si>
+    <t>Data e ora</t>
+  </si>
+  <si>
+    <t>Unique identifier</t>
+  </si>
+  <si>
+    <t>Eindeutige Kennung</t>
+  </si>
+  <si>
+    <t>Identifiant unique</t>
+  </si>
+  <si>
+    <t>Identificatore univoco</t>
+  </si>
+  <si>
+    <t>Name of the original file</t>
+  </si>
+  <si>
+    <t>Name der Originaldatei</t>
+  </si>
+  <si>
+    <t>Nom du fichier original</t>
+  </si>
+  <si>
+    <t>Nome del file originale</t>
+  </si>
+  <si>
     <t>hasFileSize</t>
-  </si>
-  <si>
-    <t>DecimalValue</t>
-  </si>
-  <si>
-    <t>File Size (Mb)</t>
-  </si>
-  <si>
-    <t>Dateigrösse (Mb)</t>
-  </si>
-  <si>
-    <t>Taille du fichier (Mb)</t>
-  </si>
-  <si>
-    <t>Dimensioni del file (Mb)</t>
-  </si>
-  <si>
-    <t>hasValue, schema:copyrightHolder, crm:P105_right_held_by</t>
-  </si>
-  <si>
-    <t>hasValue, schema:size</t>
-  </si>
-  <si>
-    <t>hasValue, schema:description, crm:P190_has_symbolic_content</t>
-  </si>
-  <si>
-    <t>hasValue, schema:identifier, crm:P1_is_identified_by</t>
-  </si>
-  <si>
-    <t>hasValue, foaf:person, schema:author, crm:E21_Person</t>
-  </si>
-  <si>
-    <t>hasAuthorshipResource</t>
-  </si>
-  <si>
-    <t>Author of the resource</t>
-  </si>
-  <si>
-    <t>Autor der Resource</t>
-  </si>
-  <si>
-    <t>Auteur·rice de la ressource</t>
-  </si>
-  <si>
-    <t>Autore della risorsa</t>
-  </si>
-  <si>
-    <t>hasCopyrightResource</t>
-  </si>
-  <si>
-    <t>Copyright of the resource</t>
-  </si>
-  <si>
-    <t>Urheberrecht der Resource</t>
-  </si>
-  <si>
-    <t>Droits d'auteur de la ressource</t>
-  </si>
-  <si>
-    <t>Copyright della risorsa</t>
-  </si>
-  <si>
-    <t>hasLicenseResource</t>
-  </si>
-  <si>
-    <t>License of the resource</t>
-  </si>
-  <si>
-    <t>Lizenz der Resource</t>
-  </si>
-  <si>
-    <t>Licence de la ressource</t>
-  </si>
-  <si>
-    <t>Licenza della risorsa</t>
-  </si>
-  <si>
-    <t>default_permissions_overrule</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -700,24 +753,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -933,11 +988,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q887"/>
+  <dimension ref="A1:R885"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="172" zoomScaleNormal="172" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L23" sqref="L23"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -962,7 +1017,7 @@
     <col min="18" max="26" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1008,340 +1063,330 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="16" t="s">
-        <v>77</v>
+      <c r="P1" s="11" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" t="s">
-        <v>24</v>
+    <row r="2" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>68</v>
       </c>
       <c r="G2" s="3"/>
-      <c r="L2" s="12" t="s">
-        <v>57</v>
+      <c r="I2" s="6"/>
+      <c r="J2" s="5"/>
+      <c r="L2" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="M2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
     </row>
-    <row r="3" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="L3" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="M3" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G3" s="3"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="5"/>
-      <c r="L3" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="P3" s="3"/>
+      <c r="N3" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
       <c r="Q3" s="3"/>
     </row>
-    <row r="4" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="J5" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="L5" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="M5" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="N5" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="3"/>
+    </row>
+    <row r="6" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="6" t="s">
+      <c r="E6" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="L6" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="M6" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N6" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+    </row>
+    <row r="7" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="L7" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="L4" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="P4" s="3"/>
+      <c r="M7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="N7" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="O7" s="9"/>
     </row>
-    <row r="5" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" s="10" t="s">
+    <row r="8" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="C8" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="D8" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="L5" s="12" t="s">
+      <c r="E8" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="M8" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="N8" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="O8" s="9"/>
+    </row>
+    <row r="9" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="M5" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="N5" s="9" t="s">
-        <v>20</v>
+      <c r="B9" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="O9" s="9" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="3"/>
-      <c r="L6" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="3"/>
-    </row>
-    <row r="7" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" s="3"/>
-      <c r="L7" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-    </row>
-    <row r="8" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" t="s">
-        <v>46</v>
-      </c>
-      <c r="G8" s="3"/>
-      <c r="L8" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-    </row>
-    <row r="9" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="H9" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="I9" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="L9" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="M9" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="N9" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="O9" s="14"/>
-    </row>
-    <row r="10" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="H10" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="I10" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="L10" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="M10" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="N10" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="O10" s="14"/>
-    </row>
-    <row r="11" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="H11" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="I11" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="L11" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="M11" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="N11" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="O11" s="14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2211,8 +2256,6 @@
     <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <autoFilter ref="A1:Q1" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q36">

--- a/daschland_ontology/project-metadata (Project Metadata)/properties.xlsx
+++ b/daschland_ontology/project-metadata (Project Metadata)/properties.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10905"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/daschland_ontology/project-metadata (Project Metadata)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32938211-92D6-6C44-ADAA-0CB216933336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D6D8062-ECDB-A240-BBAE-6071259B71B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="37080" yWindow="500" windowWidth="39480" windowHeight="31420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -328,7 +328,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="94">
   <si>
     <t>name</t>
   </si>
@@ -411,9 +411,6 @@
     <t>File Name</t>
   </si>
   <si>
-    <t>Time Stamp</t>
-  </si>
-  <si>
     <t>hlist: License</t>
   </si>
   <si>
@@ -429,9 +426,6 @@
     <t>Zeitstempel</t>
   </si>
   <si>
-    <t>Timestamp</t>
-  </si>
-  <si>
     <t>Dateiname</t>
   </si>
   <si>
@@ -580,17 +574,74 @@
   </si>
   <si>
     <t>hasFileSize</t>
+  </si>
+  <si>
+    <t>Time Stamp (file)</t>
+  </si>
+  <si>
+    <t>Zeitstempel (Datei)</t>
+  </si>
+  <si>
+    <t>Horodatage (fichier)</t>
+  </si>
+  <si>
+    <t>Timestamp (file)</t>
+  </si>
+  <si>
+    <t>hasSeqnum</t>
+  </si>
+  <si>
+    <t>Seqnum</t>
+  </si>
+  <si>
+    <t>Sequence number used for compound object</t>
+  </si>
+  <si>
+    <t>Sequenznummer für zusammengesetzte Objekte</t>
+  </si>
+  <si>
+    <t>Numéro de séquence utilisé pour l'objet composé</t>
+  </si>
+  <si>
+    <t>Numero di sequenza utilizzato per oggetti composti</t>
+  </si>
+  <si>
+    <t>seqnum, schema:position</t>
+  </si>
+  <si>
+    <t>IntValue</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -753,20 +804,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -992,7 +1046,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="172" zoomScaleNormal="172" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1007,7 +1061,7 @@
     <col min="8" max="8" width="19.6640625" customWidth="1"/>
     <col min="9" max="9" width="20.83203125" customWidth="1"/>
     <col min="10" max="10" width="32.6640625" customWidth="1"/>
-    <col min="11" max="11" width="12.33203125" customWidth="1"/>
+    <col min="11" max="11" width="40.5" customWidth="1"/>
     <col min="12" max="12" width="63" customWidth="1"/>
     <col min="13" max="13" width="29.1640625" customWidth="1"/>
     <col min="14" max="14" width="11.5" customWidth="1"/>
@@ -1064,30 +1118,30 @@
         <v>14</v>
       </c>
       <c r="P1" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="D2" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="E2" s="13" t="s">
         <v>66</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>68</v>
       </c>
       <c r="G2" s="3"/>
       <c r="I2" s="6"/>
       <c r="J2" s="5"/>
       <c r="L2" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>15</v>
@@ -1106,28 +1160,28 @@
         <v>26</v>
       </c>
       <c r="C3" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="L3" s="17" t="s">
         <v>34</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="H3" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="I3" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="J3" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="L3" s="17" t="s">
-        <v>36</v>
       </c>
       <c r="M3" s="17" t="s">
         <v>15</v>
@@ -1141,37 +1195,37 @@
     </row>
     <row r="4" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B4" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="E4" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" s="14" t="s">
+      <c r="G4" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="L4" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="G4" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="I4" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="J4" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="L4" s="8" t="s">
-        <v>44</v>
-      </c>
       <c r="M4" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N4" s="7" t="s">
         <v>19</v>
@@ -1194,19 +1248,19 @@
         <v>20</v>
       </c>
       <c r="G5" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="I5" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="J5" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="I5" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="J5" s="16" t="s">
-        <v>78</v>
-      </c>
       <c r="L5" s="16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M5" s="16" t="s">
         <v>15</v>
@@ -1223,32 +1277,32 @@
       <c r="A6" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>33</v>
+      <c r="B6" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>85</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L6" s="15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M6" s="15" t="s">
         <v>21</v>
@@ -1263,34 +1317,34 @@
     </row>
     <row r="7" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="D7" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="E7" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>52</v>
-      </c>
       <c r="G7" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="I7" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="J7" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="I7" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>52</v>
-      </c>
       <c r="L7" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M7" s="9" t="s">
         <v>15</v>
@@ -1302,34 +1356,34 @@
     </row>
     <row r="8" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="D8" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="E8" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>57</v>
-      </c>
       <c r="G8" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="I8" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="J8" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="I8" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>57</v>
-      </c>
       <c r="L8" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="M8" s="9" t="s">
         <v>15</v>
@@ -1341,34 +1395,34 @@
     </row>
     <row r="9" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="D9" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="E9" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>62</v>
-      </c>
       <c r="G9" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="I9" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="J9" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="I9" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>62</v>
-      </c>
       <c r="L9" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M9" s="9" t="s">
         <v>17</v>
@@ -1377,10 +1431,47 @@
         <v>18</v>
       </c>
       <c r="O9" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="H10" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="I10" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="J10" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="L10" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="M10" t="s">
+        <v>93</v>
+      </c>
+      <c r="N10" s="20" t="s">
+        <v>19</v>
+      </c>
+    </row>
     <row r="11" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="12" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="13" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
